--- a/OBE/data/K-WISC-V_190618.xlsx
+++ b/OBE/data/K-WISC-V_190618.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OBELAB_JH_DESKTOP\Documents\GitHub\testfornothing\OBE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E89BF7-19D9-4FED-9B5C-ADC3C8AE6EFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D645AA54-F847-4DA9-AABB-7A08E00FF461}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="143">
   <si>
     <t>기본정보</t>
   </si>
@@ -637,6 +637,34 @@
   </si>
   <si>
     <t>age</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>토막짜기_z</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통성_z</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>행렬추리_z</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자_z</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>기호쓰기_z</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>어휘_z</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>무게비교_z</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1051,6 +1079,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1091,23 +1136,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1395,10 +1423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1411,48 +1439,69 @@
     <col min="7" max="13" width="8.875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="56" t="s">
+      <c r="G1" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="S1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="T1" s="42" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -1492,8 +1541,29 @@
       <c r="M2" s="32">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="29">
+        <v>30</v>
+      </c>
+      <c r="O2" s="29">
+        <v>25</v>
+      </c>
+      <c r="P2" s="29">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="29">
+        <v>27</v>
+      </c>
+      <c r="R2" s="29">
+        <v>34</v>
+      </c>
+      <c r="S2" s="29">
+        <v>15</v>
+      </c>
+      <c r="T2" s="29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="30">
         <v>2</v>
       </c>
@@ -1533,8 +1603,29 @@
       <c r="M3" s="32">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="29">
+        <v>39</v>
+      </c>
+      <c r="O3" s="29">
+        <v>26</v>
+      </c>
+      <c r="P3" s="29">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="29">
+        <v>30</v>
+      </c>
+      <c r="R3" s="29">
+        <v>65</v>
+      </c>
+      <c r="S3" s="29">
+        <v>46</v>
+      </c>
+      <c r="T3" s="29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="30">
         <v>3</v>
       </c>
@@ -1574,8 +1665,29 @@
       <c r="M4" s="32">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" s="29">
+        <v>37</v>
+      </c>
+      <c r="O4" s="29">
+        <v>25</v>
+      </c>
+      <c r="P4" s="29">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="29">
+        <v>10</v>
+      </c>
+      <c r="R4" s="29">
+        <v>22</v>
+      </c>
+      <c r="S4" s="29">
+        <v>11</v>
+      </c>
+      <c r="T4" s="29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="30">
         <v>4</v>
       </c>
@@ -1615,8 +1727,29 @@
       <c r="M5" s="32">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" s="29">
+        <v>10</v>
+      </c>
+      <c r="O5" s="29">
+        <v>22</v>
+      </c>
+      <c r="P5" s="29">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="36">
+        <v>8</v>
+      </c>
+      <c r="R5" s="36">
+        <v>0</v>
+      </c>
+      <c r="S5" s="29">
+        <v>14</v>
+      </c>
+      <c r="T5" s="29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="30">
         <v>5</v>
       </c>
@@ -1632,7 +1765,7 @@
       <c r="E6" s="27">
         <v>39998</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="43" t="s">
         <v>127</v>
       </c>
       <c r="G6" s="32">
@@ -1656,8 +1789,29 @@
       <c r="M6" s="32">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="29">
+        <v>35</v>
+      </c>
+      <c r="O6" s="29">
+        <v>30</v>
+      </c>
+      <c r="P6" s="29">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="29">
+        <v>29</v>
+      </c>
+      <c r="R6" s="29">
+        <v>50</v>
+      </c>
+      <c r="S6" s="29">
+        <v>13</v>
+      </c>
+      <c r="T6" s="29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="30">
         <v>6</v>
       </c>
@@ -1697,8 +1851,29 @@
       <c r="M7" s="32">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7" s="29">
+        <v>22</v>
+      </c>
+      <c r="O7" s="29">
+        <v>18</v>
+      </c>
+      <c r="P7" s="29">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="29">
+        <v>13</v>
+      </c>
+      <c r="R7" s="29">
+        <v>35</v>
+      </c>
+      <c r="S7" s="29">
+        <v>9</v>
+      </c>
+      <c r="T7" s="29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="30">
         <v>7</v>
       </c>
@@ -1738,8 +1913,29 @@
       <c r="M8" s="32">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="29">
+        <v>43</v>
+      </c>
+      <c r="O8" s="29">
+        <v>23</v>
+      </c>
+      <c r="P8" s="29">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="29">
+        <v>22</v>
+      </c>
+      <c r="R8" s="29">
+        <v>41</v>
+      </c>
+      <c r="S8" s="29">
+        <v>27</v>
+      </c>
+      <c r="T8" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="30">
         <v>8</v>
       </c>
@@ -1779,8 +1975,29 @@
       <c r="M9" s="30">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9" s="29">
+        <v>22</v>
+      </c>
+      <c r="O9" s="29">
+        <v>19</v>
+      </c>
+      <c r="P9" s="29">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="29">
+        <v>22</v>
+      </c>
+      <c r="R9" s="29">
+        <v>36</v>
+      </c>
+      <c r="S9" s="29">
+        <v>18</v>
+      </c>
+      <c r="T9" s="29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="30">
         <v>9</v>
       </c>
@@ -1820,8 +2037,29 @@
       <c r="M10" s="30">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="29">
+        <v>30</v>
+      </c>
+      <c r="O10" s="29">
+        <v>27</v>
+      </c>
+      <c r="P10" s="29">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="29">
+        <v>23</v>
+      </c>
+      <c r="R10" s="29">
+        <v>63</v>
+      </c>
+      <c r="S10" s="29">
+        <v>17</v>
+      </c>
+      <c r="T10" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="30">
         <v>10</v>
       </c>
@@ -1861,8 +2099,29 @@
       <c r="M11" s="30">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="29">
+        <v>26</v>
+      </c>
+      <c r="O11" s="29">
+        <v>21</v>
+      </c>
+      <c r="P11" s="29">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="29">
+        <v>12</v>
+      </c>
+      <c r="R11" s="29">
+        <v>34</v>
+      </c>
+      <c r="S11" s="29">
+        <v>21</v>
+      </c>
+      <c r="T11" s="29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="30">
         <v>11</v>
       </c>
@@ -1902,8 +2161,29 @@
       <c r="M12" s="30">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="29">
+        <v>22</v>
+      </c>
+      <c r="O12" s="29">
+        <v>19</v>
+      </c>
+      <c r="P12" s="29">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="29">
+        <v>23</v>
+      </c>
+      <c r="R12" s="29">
+        <v>45</v>
+      </c>
+      <c r="S12" s="29">
+        <v>15</v>
+      </c>
+      <c r="T12" s="29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="30">
         <v>12</v>
       </c>
@@ -1943,8 +2223,29 @@
       <c r="M13" s="30">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="29">
+        <v>30</v>
+      </c>
+      <c r="O13" s="29">
+        <v>12</v>
+      </c>
+      <c r="P13" s="29">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="29">
+        <v>26</v>
+      </c>
+      <c r="R13" s="29">
+        <v>23</v>
+      </c>
+      <c r="S13" s="29">
+        <v>15</v>
+      </c>
+      <c r="T13" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="30">
         <v>13</v>
       </c>
@@ -1984,8 +2285,29 @@
       <c r="M14" s="32">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14" s="29">
+        <v>26</v>
+      </c>
+      <c r="O14" s="29">
+        <v>21</v>
+      </c>
+      <c r="P14" s="29">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="29">
+        <v>18</v>
+      </c>
+      <c r="R14" s="29">
+        <v>22</v>
+      </c>
+      <c r="S14" s="29">
+        <v>8</v>
+      </c>
+      <c r="T14" s="29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="30">
         <v>14</v>
       </c>
@@ -2025,8 +2347,29 @@
       <c r="M15" s="32">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="29">
+        <v>26</v>
+      </c>
+      <c r="O15" s="29">
+        <v>28</v>
+      </c>
+      <c r="P15" s="29">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="29">
+        <v>34</v>
+      </c>
+      <c r="R15" s="29">
+        <v>30</v>
+      </c>
+      <c r="S15" s="29">
+        <v>19</v>
+      </c>
+      <c r="T15" s="29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="30">
         <v>15</v>
       </c>
@@ -2066,8 +2409,29 @@
       <c r="M16" s="32">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="29">
+        <v>45</v>
+      </c>
+      <c r="O16" s="29">
+        <v>21</v>
+      </c>
+      <c r="P16" s="29">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="29">
+        <v>25</v>
+      </c>
+      <c r="R16" s="29">
+        <v>32</v>
+      </c>
+      <c r="S16" s="29">
+        <v>16</v>
+      </c>
+      <c r="T16" s="29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="30">
         <v>16</v>
       </c>
@@ -2107,8 +2471,29 @@
       <c r="M17" s="32">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17" s="29">
+        <v>39</v>
+      </c>
+      <c r="O17" s="29">
+        <v>32</v>
+      </c>
+      <c r="P17" s="29">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="29">
+        <v>20</v>
+      </c>
+      <c r="R17" s="29">
+        <v>68</v>
+      </c>
+      <c r="S17" s="29">
+        <v>41</v>
+      </c>
+      <c r="T17" s="29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="30">
         <v>17</v>
       </c>
@@ -2148,8 +2533,29 @@
       <c r="M18" s="33">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N18" s="29">
+        <v>18</v>
+      </c>
+      <c r="O18" s="36">
+        <v>0</v>
+      </c>
+      <c r="P18" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="36">
+        <v>0</v>
+      </c>
+      <c r="R18" s="36">
+        <v>0</v>
+      </c>
+      <c r="S18" s="36">
+        <v>0</v>
+      </c>
+      <c r="T18" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="30">
         <v>18</v>
       </c>
@@ -2189,8 +2595,29 @@
       <c r="M19" s="32">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="29">
+        <v>22</v>
+      </c>
+      <c r="O19" s="29">
+        <v>20</v>
+      </c>
+      <c r="P19" s="29">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="29">
+        <v>16</v>
+      </c>
+      <c r="R19" s="29">
+        <v>33</v>
+      </c>
+      <c r="S19" s="29">
+        <v>12</v>
+      </c>
+      <c r="T19" s="29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="30">
         <v>19</v>
       </c>
@@ -2206,7 +2633,7 @@
       <c r="E20" s="27">
         <v>40364</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="43" t="s">
         <v>128</v>
       </c>
       <c r="G20" s="30">
@@ -2230,8 +2657,29 @@
       <c r="M20" s="30">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N20" s="29">
+        <v>30</v>
+      </c>
+      <c r="O20" s="29">
+        <v>22</v>
+      </c>
+      <c r="P20" s="29">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="29">
+        <v>27</v>
+      </c>
+      <c r="R20" s="29">
+        <v>52</v>
+      </c>
+      <c r="S20" s="29">
+        <v>19</v>
+      </c>
+      <c r="T20" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="30">
         <v>20</v>
       </c>
@@ -2271,8 +2719,29 @@
       <c r="M21" s="30">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="29">
+        <v>30</v>
+      </c>
+      <c r="O21" s="29">
+        <v>21</v>
+      </c>
+      <c r="P21" s="29">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="29">
+        <v>24</v>
+      </c>
+      <c r="R21" s="29">
+        <v>27</v>
+      </c>
+      <c r="S21" s="29">
+        <v>16</v>
+      </c>
+      <c r="T21" s="29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="30">
         <v>21</v>
       </c>
@@ -2312,8 +2781,29 @@
       <c r="M22" s="30">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="29">
+        <v>26</v>
+      </c>
+      <c r="O22" s="29">
+        <v>18</v>
+      </c>
+      <c r="P22" s="29">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="29">
+        <v>16</v>
+      </c>
+      <c r="R22" s="29">
+        <v>19</v>
+      </c>
+      <c r="S22" s="29">
+        <v>18</v>
+      </c>
+      <c r="T22" s="29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="30">
         <v>22</v>
       </c>
@@ -2329,7 +2819,7 @@
       <c r="E23" s="28">
         <v>39638</v>
       </c>
-      <c r="F23" s="57" t="s">
+      <c r="F23" s="43" t="s">
         <v>129</v>
       </c>
       <c r="G23" s="30">
@@ -2353,8 +2843,29 @@
       <c r="M23" s="30">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N23" s="29">
+        <v>41</v>
+      </c>
+      <c r="O23" s="29">
+        <v>31</v>
+      </c>
+      <c r="P23" s="29">
+        <v>17</v>
+      </c>
+      <c r="Q23" s="29">
+        <v>28</v>
+      </c>
+      <c r="R23" s="29">
+        <v>72</v>
+      </c>
+      <c r="S23" s="29">
+        <v>42</v>
+      </c>
+      <c r="T23" s="29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="30">
         <v>23</v>
       </c>
@@ -2394,8 +2905,29 @@
       <c r="M24" s="30">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N24" s="29">
+        <v>26</v>
+      </c>
+      <c r="O24" s="29">
+        <v>20</v>
+      </c>
+      <c r="P24" s="29">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="29">
+        <v>25</v>
+      </c>
+      <c r="R24" s="29">
+        <v>34</v>
+      </c>
+      <c r="S24" s="29">
+        <v>19</v>
+      </c>
+      <c r="T24" s="29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="30">
         <v>24</v>
       </c>
@@ -2435,8 +2967,29 @@
       <c r="M25" s="29">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="N25" s="29">
+        <v>46</v>
+      </c>
+      <c r="O25" s="29">
+        <v>25</v>
+      </c>
+      <c r="P25" s="29">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="29">
+        <v>21</v>
+      </c>
+      <c r="R25" s="29">
+        <v>32</v>
+      </c>
+      <c r="S25" s="29">
+        <v>25</v>
+      </c>
+      <c r="T25" s="29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A26" s="30">
         <v>25</v>
       </c>
@@ -2476,8 +3029,29 @@
       <c r="M26" s="29">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N26" s="29">
+        <v>22</v>
+      </c>
+      <c r="O26" s="29">
+        <v>22</v>
+      </c>
+      <c r="P26" s="29">
+        <v>13</v>
+      </c>
+      <c r="Q26" s="29">
+        <v>23</v>
+      </c>
+      <c r="R26" s="29">
+        <v>36</v>
+      </c>
+      <c r="S26" s="29">
+        <v>17</v>
+      </c>
+      <c r="T26" s="29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="30">
         <v>26</v>
       </c>
@@ -2517,8 +3091,29 @@
       <c r="M27" s="29">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N27" s="29">
+        <v>45</v>
+      </c>
+      <c r="O27" s="29">
+        <v>22</v>
+      </c>
+      <c r="P27" s="29">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="29">
+        <v>31</v>
+      </c>
+      <c r="R27" s="29">
+        <v>55</v>
+      </c>
+      <c r="S27" s="29">
+        <v>21</v>
+      </c>
+      <c r="T27" s="29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="30">
         <v>27</v>
       </c>
@@ -2541,8 +3136,15 @@
       <c r="K28" s="36"/>
       <c r="L28" s="36"/>
       <c r="M28" s="36"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="30">
         <v>28</v>
       </c>
@@ -2582,8 +3184,29 @@
       <c r="M29" s="29">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="29">
+        <v>39</v>
+      </c>
+      <c r="O29" s="29">
+        <v>34</v>
+      </c>
+      <c r="P29" s="29">
+        <v>22</v>
+      </c>
+      <c r="Q29" s="29">
+        <v>26</v>
+      </c>
+      <c r="R29" s="29">
+        <v>51</v>
+      </c>
+      <c r="S29" s="29">
+        <v>34</v>
+      </c>
+      <c r="T29" s="29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="30">
         <v>29</v>
       </c>
@@ -2623,8 +3246,29 @@
       <c r="M30" s="29">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="29">
+        <v>30</v>
+      </c>
+      <c r="O30" s="29">
+        <v>23</v>
+      </c>
+      <c r="P30" s="29">
+        <v>22</v>
+      </c>
+      <c r="Q30" s="29">
+        <v>26</v>
+      </c>
+      <c r="R30" s="29">
+        <v>37</v>
+      </c>
+      <c r="S30" s="29">
+        <v>18</v>
+      </c>
+      <c r="T30" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="30">
         <v>30</v>
       </c>
@@ -2664,8 +3308,29 @@
       <c r="M31" s="29">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="29">
+        <v>34</v>
+      </c>
+      <c r="O31" s="29">
+        <v>24</v>
+      </c>
+      <c r="P31" s="29">
+        <v>19</v>
+      </c>
+      <c r="Q31" s="29">
+        <v>29</v>
+      </c>
+      <c r="R31" s="29">
+        <v>29</v>
+      </c>
+      <c r="S31" s="29">
+        <v>15</v>
+      </c>
+      <c r="T31" s="29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="30">
         <v>31</v>
       </c>
@@ -2705,8 +3370,29 @@
       <c r="M32" s="29">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N32" s="29">
+        <v>25</v>
+      </c>
+      <c r="O32" s="29">
+        <v>11</v>
+      </c>
+      <c r="P32" s="29">
+        <v>9</v>
+      </c>
+      <c r="Q32" s="29">
+        <v>15</v>
+      </c>
+      <c r="R32" s="29">
+        <v>15</v>
+      </c>
+      <c r="S32" s="29">
+        <v>12</v>
+      </c>
+      <c r="T32" s="29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="30">
         <v>32</v>
       </c>
@@ -2746,8 +3432,29 @@
       <c r="M33" s="29">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N33" s="29">
+        <v>31</v>
+      </c>
+      <c r="O33" s="29">
+        <v>20</v>
+      </c>
+      <c r="P33" s="29">
+        <v>15</v>
+      </c>
+      <c r="Q33" s="29">
+        <v>24</v>
+      </c>
+      <c r="R33" s="29">
+        <v>45</v>
+      </c>
+      <c r="S33" s="29">
+        <v>26</v>
+      </c>
+      <c r="T33" s="29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="30">
         <v>33</v>
       </c>
@@ -2787,8 +3494,29 @@
       <c r="M34" s="29">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="29">
+        <v>36</v>
+      </c>
+      <c r="O34" s="29">
+        <v>21</v>
+      </c>
+      <c r="P34" s="29">
+        <v>21</v>
+      </c>
+      <c r="Q34" s="29">
+        <v>34</v>
+      </c>
+      <c r="R34" s="29">
+        <v>56</v>
+      </c>
+      <c r="S34" s="29">
+        <v>16</v>
+      </c>
+      <c r="T34" s="29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="30">
         <v>34</v>
       </c>
@@ -2828,8 +3556,29 @@
       <c r="M35" s="29">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N35" s="29">
+        <v>30</v>
+      </c>
+      <c r="O35" s="29">
+        <v>5</v>
+      </c>
+      <c r="P35" s="29">
+        <v>9</v>
+      </c>
+      <c r="Q35" s="29">
+        <v>17</v>
+      </c>
+      <c r="R35" s="29">
+        <v>29</v>
+      </c>
+      <c r="S35" s="29">
+        <v>14</v>
+      </c>
+      <c r="T35" s="29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="30">
         <v>35</v>
       </c>
@@ -2869,8 +3618,29 @@
       <c r="M36" s="29">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N36" s="29">
+        <v>42</v>
+      </c>
+      <c r="O36" s="29">
+        <v>22</v>
+      </c>
+      <c r="P36" s="29">
+        <v>22</v>
+      </c>
+      <c r="Q36" s="29">
+        <v>25</v>
+      </c>
+      <c r="R36" s="29">
+        <v>45</v>
+      </c>
+      <c r="S36" s="29">
+        <v>10</v>
+      </c>
+      <c r="T36" s="29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="30">
         <v>36</v>
       </c>
@@ -2910,8 +3680,29 @@
       <c r="M37" s="29">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N37" s="29">
+        <v>34</v>
+      </c>
+      <c r="O37" s="29">
+        <v>12</v>
+      </c>
+      <c r="P37" s="29">
+        <v>22</v>
+      </c>
+      <c r="Q37" s="29">
+        <v>21</v>
+      </c>
+      <c r="R37" s="29">
+        <v>51</v>
+      </c>
+      <c r="S37" s="29">
+        <v>7</v>
+      </c>
+      <c r="T37" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="30">
         <v>37</v>
       </c>
@@ -2951,8 +3742,29 @@
       <c r="M38" s="29">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N38" s="29">
+        <v>26</v>
+      </c>
+      <c r="O38" s="29">
+        <v>28</v>
+      </c>
+      <c r="P38" s="29">
+        <v>16</v>
+      </c>
+      <c r="Q38" s="29">
+        <v>29</v>
+      </c>
+      <c r="R38" s="29">
+        <v>45</v>
+      </c>
+      <c r="S38" s="29">
+        <v>26</v>
+      </c>
+      <c r="T38" s="29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="30">
         <v>38</v>
       </c>
@@ -2992,8 +3804,29 @@
       <c r="M39" s="29">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="29">
+        <v>39</v>
+      </c>
+      <c r="O39" s="29">
+        <v>22</v>
+      </c>
+      <c r="P39" s="29">
+        <v>19</v>
+      </c>
+      <c r="Q39" s="29">
+        <v>17</v>
+      </c>
+      <c r="R39" s="29">
+        <v>29</v>
+      </c>
+      <c r="S39" s="29">
+        <v>16</v>
+      </c>
+      <c r="T39" s="29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="30">
         <v>39</v>
       </c>
@@ -3033,8 +3866,29 @@
       <c r="M40" s="29">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="29">
+        <v>13</v>
+      </c>
+      <c r="O40" s="29">
+        <v>10</v>
+      </c>
+      <c r="P40" s="29">
+        <v>16</v>
+      </c>
+      <c r="Q40" s="29">
+        <v>19</v>
+      </c>
+      <c r="R40" s="29">
+        <v>24</v>
+      </c>
+      <c r="S40" s="29">
+        <v>15</v>
+      </c>
+      <c r="T40" s="29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="30">
         <v>40</v>
       </c>
@@ -3074,8 +3928,29 @@
       <c r="M41" s="29">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N41" s="29">
+        <v>10</v>
+      </c>
+      <c r="O41" s="29">
+        <v>34</v>
+      </c>
+      <c r="P41" s="29">
+        <v>16</v>
+      </c>
+      <c r="Q41" s="29">
+        <v>20</v>
+      </c>
+      <c r="R41" s="29">
+        <v>52</v>
+      </c>
+      <c r="S41" s="29">
+        <v>22</v>
+      </c>
+      <c r="T41" s="29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="30">
         <v>41</v>
       </c>
@@ -3115,8 +3990,29 @@
       <c r="M42" s="29">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N42" s="29">
+        <v>41</v>
+      </c>
+      <c r="O42" s="29">
+        <v>35</v>
+      </c>
+      <c r="P42" s="29">
+        <v>19</v>
+      </c>
+      <c r="Q42" s="29">
+        <v>15</v>
+      </c>
+      <c r="R42" s="29">
+        <v>42</v>
+      </c>
+      <c r="S42" s="29">
+        <v>29</v>
+      </c>
+      <c r="T42" s="29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="30">
         <v>42</v>
       </c>
@@ -3132,7 +4028,7 @@
       <c r="E43" s="28">
         <v>39289</v>
       </c>
-      <c r="F43" s="58" t="s">
+      <c r="F43" s="44" t="s">
         <v>130</v>
       </c>
       <c r="G43" s="29">
@@ -3156,8 +4052,29 @@
       <c r="M43" s="29">
         <v>15</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N43" s="29">
+        <v>55</v>
+      </c>
+      <c r="O43" s="29">
+        <v>31</v>
+      </c>
+      <c r="P43" s="29">
+        <v>25</v>
+      </c>
+      <c r="Q43" s="29">
+        <v>45</v>
+      </c>
+      <c r="R43" s="29">
+        <v>60</v>
+      </c>
+      <c r="S43" s="29">
+        <v>27</v>
+      </c>
+      <c r="T43" s="29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="30">
         <v>43</v>
       </c>
@@ -3173,7 +4090,7 @@
       <c r="E44" s="28">
         <v>40018</v>
       </c>
-      <c r="F44" s="58" t="s">
+      <c r="F44" s="44" t="s">
         <v>131</v>
       </c>
       <c r="G44" s="29">
@@ -3197,8 +4114,29 @@
       <c r="M44" s="29">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="29">
+        <v>42</v>
+      </c>
+      <c r="O44" s="29">
+        <v>18</v>
+      </c>
+      <c r="P44" s="29">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="29">
+        <v>44</v>
+      </c>
+      <c r="R44" s="29">
+        <v>54</v>
+      </c>
+      <c r="S44" s="29">
+        <v>29</v>
+      </c>
+      <c r="T44" s="29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="30">
         <v>44</v>
       </c>
@@ -3238,8 +4176,29 @@
       <c r="M45" s="29">
         <v>13</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N45" s="29">
+        <v>30</v>
+      </c>
+      <c r="O45" s="29">
+        <v>21</v>
+      </c>
+      <c r="P45" s="29">
+        <v>17</v>
+      </c>
+      <c r="Q45" s="29">
+        <v>26</v>
+      </c>
+      <c r="R45" s="29">
+        <v>28</v>
+      </c>
+      <c r="S45" s="29">
+        <v>20</v>
+      </c>
+      <c r="T45" s="29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="30">
         <v>45</v>
       </c>
@@ -3279,8 +4238,29 @@
       <c r="M46" s="29">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="29">
+        <v>30</v>
+      </c>
+      <c r="O46" s="29">
+        <v>12</v>
+      </c>
+      <c r="P46" s="29">
+        <v>17</v>
+      </c>
+      <c r="Q46" s="29">
+        <v>23</v>
+      </c>
+      <c r="R46" s="29">
+        <v>33</v>
+      </c>
+      <c r="S46" s="29">
+        <v>20</v>
+      </c>
+      <c r="T46" s="29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="30">
         <v>46</v>
       </c>
@@ -3320,8 +4300,29 @@
       <c r="M47" s="29">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N47" s="29">
+        <v>25</v>
+      </c>
+      <c r="O47" s="29">
+        <v>7</v>
+      </c>
+      <c r="P47" s="29">
+        <v>14</v>
+      </c>
+      <c r="Q47" s="29">
+        <v>16</v>
+      </c>
+      <c r="R47" s="29">
+        <v>39</v>
+      </c>
+      <c r="S47" s="29">
+        <v>15</v>
+      </c>
+      <c r="T47" s="29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="30">
         <v>47</v>
       </c>
@@ -3361,8 +4362,29 @@
       <c r="M48" s="29">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N48" s="29">
+        <v>26</v>
+      </c>
+      <c r="O48" s="29">
+        <v>17</v>
+      </c>
+      <c r="P48" s="29">
+        <v>13</v>
+      </c>
+      <c r="Q48" s="29">
+        <v>25</v>
+      </c>
+      <c r="R48" s="29">
+        <v>46</v>
+      </c>
+      <c r="S48" s="29">
+        <v>6</v>
+      </c>
+      <c r="T48" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="30">
         <v>48</v>
       </c>
@@ -3402,11 +4424,32 @@
       <c r="M49" s="29">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N49" s="29">
+        <v>40</v>
+      </c>
+      <c r="O49" s="29">
+        <v>30</v>
+      </c>
+      <c r="P49" s="29">
+        <v>21</v>
+      </c>
+      <c r="Q49" s="29">
+        <v>48</v>
+      </c>
+      <c r="R49" s="29">
+        <v>77</v>
+      </c>
+      <c r="S49" s="29">
+        <v>25</v>
+      </c>
+      <c r="T49" s="29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="30"/>
     </row>
-    <row r="53" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B53" s="37" t="s">
         <v>125</v>
       </c>
@@ -3433,96 +4476,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="43"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="50"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="38" t="s">
+      <c r="H2" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="58"/>
+      <c r="K2" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="46"/>
+      <c r="M2" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="46"/>
+      <c r="O2" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="39"/>
-      <c r="S2" s="38" t="s">
+      <c r="R2" s="46"/>
+      <c r="S2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="39"/>
-      <c r="U2" s="38" t="s">
+      <c r="T2" s="46"/>
+      <c r="U2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="50"/>
+      <c r="V2" s="57"/>
     </row>
     <row r="3" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="45"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="49"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4821,6 +5864,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="A1:H1"/>
@@ -4837,7 +5881,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
